--- a/titlePilotStudy/data/UKR.xlsx
+++ b/titlePilotStudy/data/UKR.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Identifier</t>
   </si>
@@ -99,16 +100,10 @@
     <t>no</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Slot</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>index</t>
   </si>
   <si>
     <t>copiedFromSummary</t>
@@ -237,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,9 +270,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -564,12 +556,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM322"/>
+  <dimension ref="A1:AL322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,17 +569,17 @@
     <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="20" width="8.88671875" style="1"/>
     <col min="21" max="27" width="8.88671875" style="1" customWidth="1"/>
-    <col min="28" max="29" width="8.88671875" style="1"/>
-    <col min="30" max="30" width="12.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.21875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.88671875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.21875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="1"/>
+    <col min="28" max="28" width="8.88671875" style="1"/>
+    <col min="29" max="29" width="12.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.21875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5546875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -598,10 +590,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>3</v>
@@ -669,72 +661,71 @@
       <c r="AA1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="14" t="s">
         <v>29</v>
       </c>
       <c r="AC1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
@@ -748,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>25</v>
@@ -819,11 +810,8 @@
       <c r="AL2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="E3"/>
       <c r="F3" s="2"/>
@@ -849,7 +837,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -878,7 +866,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -907,7 +895,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -936,7 +924,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -965,7 +953,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -994,7 +982,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1023,7 +1011,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1052,7 +1040,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1081,7 +1069,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1110,7 +1098,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1139,7 +1127,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1168,7 +1156,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1197,7 +1185,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -10101,30 +10089,27 @@
       <c r="AA322" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q322 N1:N322 L1:L322 J1:J241 W3:X322 J277:J322 W1:X1 Z1:Z322 R2:Y2 AA2:AM2">
-      <formula1>"yes,no"</formula1>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576">
+      <formula1>"interpunc,word,mixed,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y308:Y322 Y1 Y3:Y276">
-      <formula1>"interpunc,word,mixed,none"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1 S3:S322">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
       <formula1>"m,f,d,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1 T3:T322">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576 R1:R1048576 V1:V1048576">
+      <formula1>"def,indef,no,na"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK1048576 AI1:AI1048576 AG1:AG1048576 AE1:AE1048576 AC1:AC1048576">
+      <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576 AD1:AD1048576 AF1:AF1048576 AH1:AH1048576 AJ1:AJ1048576">
+      <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
       <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R322 M1:M322 R1 V1 V3:V322">
-      <formula1>"def,indef,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y277:Y307">
-      <formula1>"interpunc,word,none"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE1048576 AG3:AG1048576 AI3:AI1048576 AK3:AK1048576 AK1 AI1 AG1 AE1 AC1 AC3:AC1048576">
-      <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF1048576 AH3:AH1048576 AJ3:AJ1048576 AL3:AL1048576 AL1 AJ1 AH1 AF1 AD1 AD3:AD1048576">
-      <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q322 N1:N322 L1:L322 J1:J241 J277:J322 W1:X322 Z1:Z322 U2 AA2">
+      <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/titlePilotStudy/data/UKR.xlsx
+++ b/titlePilotStudy/data/UKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7668"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="124">
   <si>
     <t>Identifier</t>
   </si>
@@ -352,12 +352,6 @@
   </si>
   <si>
     <t>A Lost life</t>
-  </si>
-  <si>
-    <t>povist=novel</t>
-  </si>
-  <si>
-    <t>opovidannia=story</t>
   </si>
   <si>
     <t>brat, sestrytsia</t>
@@ -543,8 +537,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,9 +554,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,7 +594,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -672,7 +666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -824,30 +818,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="10"/>
-    <col min="2" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="33.28515625" style="1" customWidth="1"/>
-    <col min="7" max="20" width="8.85546875" style="1"/>
-    <col min="21" max="27" width="8.85546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="10"/>
+    <col min="2" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="33.33203125" style="1" customWidth="1"/>
+    <col min="7" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="27" width="8.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="1"/>
+    <col min="29" max="29" width="12.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5546875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.85546875" style="1"/>
+    <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -966,7 +960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
@@ -1079,13 +1073,13 @@
         <v>25</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -1201,10 +1195,10 @@
         <v>98</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>56</v>
       </c>
@@ -1248,10 +1242,10 @@
         <v>45</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>25</v>
@@ -1317,13 +1311,13 @@
         <v>25</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
@@ -1397,7 +1391,7 @@
         <v>45</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>45</v>
@@ -1436,13 +1430,13 @@
         <v>25</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
@@ -1516,7 +1510,7 @@
         <v>45</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>45</v>
@@ -1558,10 +1552,10 @@
         <v>97</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>65</v>
       </c>
@@ -1635,7 +1629,7 @@
         <v>45</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>45</v>
@@ -1677,10 +1671,10 @@
         <v>88</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -1754,7 +1748,7 @@
         <v>45</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>45</v>
@@ -1796,10 +1790,10 @@
         <v>89</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>73</v>
       </c>
@@ -1873,7 +1867,7 @@
         <v>45</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>45</v>
@@ -1918,7 +1912,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>74</v>
       </c>
@@ -2037,7 +2031,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>77</v>
       </c>
@@ -2153,10 +2147,10 @@
         <v>100</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2254,7 +2248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2293,11 +2287,9 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2336,11 +2328,9 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2380,7 +2370,7 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2420,7 +2410,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2460,7 +2450,7 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2500,7 +2490,7 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2529,7 +2519,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2558,7 +2548,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2587,7 +2577,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2616,7 +2606,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2645,7 +2635,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2674,7 +2664,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2703,7 +2693,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2732,7 +2722,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2761,7 +2751,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2790,7 +2780,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2819,7 +2809,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2848,7 +2838,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2877,7 +2867,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2906,7 +2896,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2935,7 +2925,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2964,7 +2954,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2993,7 +2983,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3022,7 +3012,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3051,7 +3041,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3080,7 +3070,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3109,7 +3099,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3138,7 +3128,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3167,7 +3157,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3196,7 +3186,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3225,7 +3215,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3254,7 +3244,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3283,7 +3273,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3312,7 +3302,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3341,7 +3331,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3370,7 +3360,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3399,7 +3389,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3428,7 +3418,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3457,7 +3447,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3486,7 +3476,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3515,7 +3505,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3544,7 +3534,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3573,7 +3563,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3602,7 +3592,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3631,7 +3621,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3660,7 +3650,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3689,7 +3679,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3718,7 +3708,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3747,7 +3737,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3776,7 +3766,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3805,7 +3795,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3834,7 +3824,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3863,7 +3853,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3892,7 +3882,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3921,7 +3911,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3950,7 +3940,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3979,7 +3969,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -4008,7 +3998,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4037,7 +4027,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -4066,7 +4056,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -4095,7 +4085,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4124,7 +4114,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4153,7 +4143,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4182,7 +4172,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -4211,7 +4201,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -4240,7 +4230,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4269,7 +4259,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -4298,7 +4288,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -4327,7 +4317,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -4356,7 +4346,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -4385,7 +4375,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4414,7 +4404,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4443,7 +4433,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4472,7 +4462,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4501,7 +4491,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4530,7 +4520,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4559,7 +4549,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4588,7 +4578,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -4617,7 +4607,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -4646,7 +4636,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4675,7 +4665,7 @@
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4704,7 +4694,7 @@
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4733,7 +4723,7 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4762,7 +4752,7 @@
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4791,7 +4781,7 @@
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4820,7 +4810,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4849,7 +4839,7 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4878,7 +4868,7 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
     </row>
-    <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4907,7 +4897,7 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4936,7 +4926,7 @@
       <c r="Z102" s="3"/>
       <c r="AA102" s="3"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4965,7 +4955,7 @@
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4994,7 +4984,7 @@
       <c r="Z104" s="3"/>
       <c r="AA104" s="3"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5023,7 +5013,7 @@
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5052,7 +5042,7 @@
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5081,7 +5071,7 @@
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5110,7 +5100,7 @@
       <c r="Z108" s="3"/>
       <c r="AA108" s="3"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5139,7 +5129,7 @@
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5168,7 +5158,7 @@
       <c r="Z110" s="3"/>
       <c r="AA110" s="3"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5197,7 +5187,7 @@
       <c r="Z111" s="3"/>
       <c r="AA111" s="3"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5226,7 +5216,7 @@
       <c r="Z112" s="3"/>
       <c r="AA112" s="3"/>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5255,7 +5245,7 @@
       <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5284,7 +5274,7 @@
       <c r="Z114" s="3"/>
       <c r="AA114" s="3"/>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5313,7 +5303,7 @@
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5342,7 +5332,7 @@
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5371,7 +5361,7 @@
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5400,7 +5390,7 @@
       <c r="Z118" s="3"/>
       <c r="AA118" s="3"/>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5429,7 +5419,7 @@
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5458,7 +5448,7 @@
       <c r="Z120" s="3"/>
       <c r="AA120" s="3"/>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5487,7 +5477,7 @@
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5516,7 +5506,7 @@
       <c r="Z122" s="3"/>
       <c r="AA122" s="3"/>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5545,7 +5535,7 @@
       <c r="Z123" s="3"/>
       <c r="AA123" s="3"/>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5574,7 +5564,7 @@
       <c r="Z124" s="3"/>
       <c r="AA124" s="3"/>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5603,7 +5593,7 @@
       <c r="Z125" s="3"/>
       <c r="AA125" s="3"/>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5632,7 +5622,7 @@
       <c r="Z126" s="3"/>
       <c r="AA126" s="3"/>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5661,7 +5651,7 @@
       <c r="Z127" s="3"/>
       <c r="AA127" s="3"/>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5690,7 +5680,7 @@
       <c r="Z128" s="3"/>
       <c r="AA128" s="3"/>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5719,7 +5709,7 @@
       <c r="Z129" s="3"/>
       <c r="AA129" s="3"/>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5748,7 +5738,7 @@
       <c r="Z130" s="3"/>
       <c r="AA130" s="3"/>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5777,7 +5767,7 @@
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5806,7 +5796,7 @@
       <c r="Z132" s="3"/>
       <c r="AA132" s="3"/>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5835,7 +5825,7 @@
       <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5864,7 +5854,7 @@
       <c r="Z134" s="3"/>
       <c r="AA134" s="3"/>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5893,7 +5883,7 @@
       <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5922,7 +5912,7 @@
       <c r="Z136" s="3"/>
       <c r="AA136" s="3"/>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5951,7 +5941,7 @@
       <c r="Z137" s="3"/>
       <c r="AA137" s="3"/>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5980,7 +5970,7 @@
       <c r="Z138" s="3"/>
       <c r="AA138" s="3"/>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6009,7 +5999,7 @@
       <c r="Z139" s="3"/>
       <c r="AA139" s="3"/>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -6038,7 +6028,7 @@
       <c r="Z140" s="3"/>
       <c r="AA140" s="3"/>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -6067,7 +6057,7 @@
       <c r="Z141" s="3"/>
       <c r="AA141" s="3"/>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -6096,7 +6086,7 @@
       <c r="Z142" s="3"/>
       <c r="AA142" s="3"/>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -6125,7 +6115,7 @@
       <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -6154,7 +6144,7 @@
       <c r="Z144" s="3"/>
       <c r="AA144" s="3"/>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -6183,7 +6173,7 @@
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -6212,7 +6202,7 @@
       <c r="Z146" s="3"/>
       <c r="AA146" s="3"/>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -6241,7 +6231,7 @@
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -6270,7 +6260,7 @@
       <c r="Z148" s="3"/>
       <c r="AA148" s="3"/>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -6299,7 +6289,7 @@
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -6328,7 +6318,7 @@
       <c r="Z150" s="3"/>
       <c r="AA150" s="3"/>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -6357,7 +6347,7 @@
       <c r="Z151" s="3"/>
       <c r="AA151" s="3"/>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -6386,7 +6376,7 @@
       <c r="Z152" s="3"/>
       <c r="AA152" s="3"/>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -6415,7 +6405,7 @@
       <c r="Z153" s="3"/>
       <c r="AA153" s="3"/>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -6444,7 +6434,7 @@
       <c r="Z154" s="3"/>
       <c r="AA154" s="3"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -6473,7 +6463,7 @@
       <c r="Z155" s="3"/>
       <c r="AA155" s="3"/>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -6502,7 +6492,7 @@
       <c r="Z156" s="3"/>
       <c r="AA156" s="3"/>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -6531,7 +6521,7 @@
       <c r="Z157" s="3"/>
       <c r="AA157" s="3"/>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -6560,7 +6550,7 @@
       <c r="Z158" s="3"/>
       <c r="AA158" s="3"/>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6589,7 +6579,7 @@
       <c r="Z159" s="3"/>
       <c r="AA159" s="3"/>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -6618,7 +6608,7 @@
       <c r="Z160" s="3"/>
       <c r="AA160" s="3"/>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -6647,7 +6637,7 @@
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -6676,7 +6666,7 @@
       <c r="Z162" s="3"/>
       <c r="AA162" s="3"/>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -6705,7 +6695,7 @@
       <c r="Z163" s="3"/>
       <c r="AA163" s="3"/>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6734,7 +6724,7 @@
       <c r="Z164" s="3"/>
       <c r="AA164" s="3"/>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6763,7 +6753,7 @@
       <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6792,7 +6782,7 @@
       <c r="Z166" s="3"/>
       <c r="AA166" s="3"/>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6821,7 +6811,7 @@
       <c r="Z167" s="3"/>
       <c r="AA167" s="3"/>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6850,7 +6840,7 @@
       <c r="Z168" s="3"/>
       <c r="AA168" s="3"/>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6879,7 +6869,7 @@
       <c r="Z169" s="3"/>
       <c r="AA169" s="3"/>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6908,7 +6898,7 @@
       <c r="Z170" s="3"/>
       <c r="AA170" s="3"/>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6937,7 +6927,7 @@
       <c r="Z171" s="3"/>
       <c r="AA171" s="3"/>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6966,7 +6956,7 @@
       <c r="Z172" s="3"/>
       <c r="AA172" s="3"/>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6995,7 +6985,7 @@
       <c r="Z173" s="3"/>
       <c r="AA173" s="3"/>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -7024,7 +7014,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -7053,7 +7043,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7082,7 +7072,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="5"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7111,7 +7101,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7140,7 +7130,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7169,7 +7159,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7198,7 +7188,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7227,7 +7217,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="8"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7256,7 +7246,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7285,7 +7275,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7314,7 +7304,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7343,7 +7333,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7372,7 +7362,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7401,7 +7391,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7430,7 +7420,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7459,7 +7449,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7488,7 +7478,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7517,7 +7507,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7546,7 +7536,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7575,7 +7565,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="8"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7604,7 +7594,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7633,7 +7623,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7662,7 +7652,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7691,7 +7681,7 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="8"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7720,7 +7710,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7749,7 +7739,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7778,7 +7768,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="8"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -7807,7 +7797,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="8"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -7836,7 +7826,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="8"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -7865,7 +7855,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -7894,7 +7884,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -7923,7 +7913,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -7952,7 +7942,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207" s="8"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -7981,7 +7971,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -8010,7 +8000,7 @@
       <c r="Z208" s="3"/>
       <c r="AA208" s="3"/>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A209" s="9"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -8039,7 +8029,7 @@
       <c r="Z209" s="3"/>
       <c r="AA209" s="3"/>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A210" s="9"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -8068,7 +8058,7 @@
       <c r="Z210" s="3"/>
       <c r="AA210" s="3"/>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -8097,7 +8087,7 @@
       <c r="Z211" s="3"/>
       <c r="AA211" s="3"/>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -8126,7 +8116,7 @@
       <c r="Z212" s="3"/>
       <c r="AA212" s="3"/>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -8155,7 +8145,7 @@
       <c r="Z213" s="3"/>
       <c r="AA213" s="3"/>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A214" s="9"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -8184,7 +8174,7 @@
       <c r="Z214" s="3"/>
       <c r="AA214" s="3"/>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -8213,7 +8203,7 @@
       <c r="Z215" s="3"/>
       <c r="AA215" s="3"/>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -8242,7 +8232,7 @@
       <c r="Z216" s="3"/>
       <c r="AA216" s="3"/>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -8271,7 +8261,7 @@
       <c r="Z217" s="3"/>
       <c r="AA217" s="3"/>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A218" s="9"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -8300,7 +8290,7 @@
       <c r="Z218" s="3"/>
       <c r="AA218" s="3"/>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -8329,7 +8319,7 @@
       <c r="Z219" s="3"/>
       <c r="AA219" s="3"/>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -8358,7 +8348,7 @@
       <c r="Z220" s="3"/>
       <c r="AA220" s="3"/>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -8387,7 +8377,7 @@
       <c r="Z221" s="3"/>
       <c r="AA221" s="3"/>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -8416,7 +8406,7 @@
       <c r="Z222" s="3"/>
       <c r="AA222" s="3"/>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -8445,7 +8435,7 @@
       <c r="Z223" s="3"/>
       <c r="AA223" s="3"/>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -8474,7 +8464,7 @@
       <c r="Z224" s="3"/>
       <c r="AA224" s="3"/>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -8503,7 +8493,7 @@
       <c r="Z225" s="3"/>
       <c r="AA225" s="3"/>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -8532,7 +8522,7 @@
       <c r="Z226" s="3"/>
       <c r="AA226" s="3"/>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A227" s="9"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -8561,7 +8551,7 @@
       <c r="Z227" s="3"/>
       <c r="AA227" s="3"/>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -8590,7 +8580,7 @@
       <c r="Z228" s="3"/>
       <c r="AA228" s="3"/>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -8619,7 +8609,7 @@
       <c r="Z229" s="3"/>
       <c r="AA229" s="3"/>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -8648,7 +8638,7 @@
       <c r="Z230" s="3"/>
       <c r="AA230" s="3"/>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -8677,7 +8667,7 @@
       <c r="Z231" s="3"/>
       <c r="AA231" s="3"/>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -8706,7 +8696,7 @@
       <c r="Z232" s="3"/>
       <c r="AA232" s="3"/>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -8735,7 +8725,7 @@
       <c r="Z233" s="3"/>
       <c r="AA233" s="3"/>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -8764,7 +8754,7 @@
       <c r="Z234" s="3"/>
       <c r="AA234" s="3"/>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -8793,7 +8783,7 @@
       <c r="Z235" s="3"/>
       <c r="AA235" s="3"/>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A236" s="9"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -8822,7 +8812,7 @@
       <c r="Z236" s="3"/>
       <c r="AA236" s="3"/>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -8851,7 +8841,7 @@
       <c r="Z237" s="3"/>
       <c r="AA237" s="3"/>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -8880,7 +8870,7 @@
       <c r="Z238" s="3"/>
       <c r="AA238" s="3"/>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -8909,7 +8899,7 @@
       <c r="Z239" s="3"/>
       <c r="AA239" s="3"/>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -8938,7 +8928,7 @@
       <c r="Z240" s="3"/>
       <c r="AA240" s="3"/>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -8967,7 +8957,7 @@
       <c r="Z241" s="3"/>
       <c r="AA241" s="3"/>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -8996,7 +8986,7 @@
       <c r="Z242" s="3"/>
       <c r="AA242" s="3"/>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -9025,7 +9015,7 @@
       <c r="Z243" s="3"/>
       <c r="AA243" s="3"/>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -9054,7 +9044,7 @@
       <c r="Z244" s="3"/>
       <c r="AA244" s="3"/>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -9083,7 +9073,7 @@
       <c r="Z245" s="3"/>
       <c r="AA245" s="3"/>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -9112,7 +9102,7 @@
       <c r="Z246" s="3"/>
       <c r="AA246" s="3"/>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -9141,7 +9131,7 @@
       <c r="Z247" s="3"/>
       <c r="AA247" s="3"/>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -9170,7 +9160,7 @@
       <c r="Z248" s="3"/>
       <c r="AA248" s="3"/>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -9199,7 +9189,7 @@
       <c r="Z249" s="3"/>
       <c r="AA249" s="3"/>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -9228,7 +9218,7 @@
       <c r="Z250" s="3"/>
       <c r="AA250" s="3"/>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A251" s="9"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -9257,7 +9247,7 @@
       <c r="Z251" s="3"/>
       <c r="AA251" s="3"/>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -9286,7 +9276,7 @@
       <c r="Z252" s="3"/>
       <c r="AA252" s="3"/>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -9315,7 +9305,7 @@
       <c r="Z253" s="3"/>
       <c r="AA253" s="3"/>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A254" s="9"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -9344,7 +9334,7 @@
       <c r="Z254" s="3"/>
       <c r="AA254" s="3"/>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -9373,7 +9363,7 @@
       <c r="Z255" s="3"/>
       <c r="AA255" s="3"/>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -9402,7 +9392,7 @@
       <c r="Z256" s="3"/>
       <c r="AA256" s="3"/>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -9431,7 +9421,7 @@
       <c r="Z257" s="3"/>
       <c r="AA257" s="3"/>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -9460,7 +9450,7 @@
       <c r="Z258" s="3"/>
       <c r="AA258" s="3"/>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -9489,7 +9479,7 @@
       <c r="Z259" s="3"/>
       <c r="AA259" s="3"/>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -9518,7 +9508,7 @@
       <c r="Z260" s="3"/>
       <c r="AA260" s="3"/>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -9547,7 +9537,7 @@
       <c r="Z261" s="3"/>
       <c r="AA261" s="3"/>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -9576,7 +9566,7 @@
       <c r="Z262" s="3"/>
       <c r="AA262" s="3"/>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A263" s="9"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -9605,7 +9595,7 @@
       <c r="Z263" s="3"/>
       <c r="AA263" s="3"/>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A264" s="9"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -9634,7 +9624,7 @@
       <c r="Z264" s="3"/>
       <c r="AA264" s="3"/>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -9663,7 +9653,7 @@
       <c r="Z265" s="3"/>
       <c r="AA265" s="3"/>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A266" s="9"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -9692,7 +9682,7 @@
       <c r="Z266" s="3"/>
       <c r="AA266" s="3"/>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -9721,7 +9711,7 @@
       <c r="Z267" s="3"/>
       <c r="AA267" s="3"/>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -9750,7 +9740,7 @@
       <c r="Z268" s="3"/>
       <c r="AA268" s="3"/>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -9779,7 +9769,7 @@
       <c r="Z269" s="3"/>
       <c r="AA269" s="3"/>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -9808,7 +9798,7 @@
       <c r="Z270" s="3"/>
       <c r="AA270" s="3"/>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -9837,7 +9827,7 @@
       <c r="Z271" s="3"/>
       <c r="AA271" s="3"/>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A272" s="9"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -9866,7 +9856,7 @@
       <c r="Z272" s="3"/>
       <c r="AA272" s="3"/>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -9895,7 +9885,7 @@
       <c r="Z273" s="3"/>
       <c r="AA273" s="3"/>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -9924,7 +9914,7 @@
       <c r="Z274" s="3"/>
       <c r="AA274" s="3"/>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -9953,7 +9943,7 @@
       <c r="Z275" s="3"/>
       <c r="AA275" s="3"/>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -9982,7 +9972,7 @@
       <c r="Z276" s="3"/>
       <c r="AA276" s="3"/>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -10011,7 +10001,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A278" s="8"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -10040,7 +10030,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A279" s="8"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -10069,7 +10059,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A280" s="8"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -10098,7 +10088,7 @@
       <c r="Z280" s="4"/>
       <c r="AA280" s="4"/>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -10127,7 +10117,7 @@
       <c r="Z281" s="4"/>
       <c r="AA281" s="4"/>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -10156,7 +10146,7 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="4"/>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A283" s="8"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -10185,7 +10175,7 @@
       <c r="Z283" s="4"/>
       <c r="AA283" s="4"/>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A284" s="8"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -10214,7 +10204,7 @@
       <c r="Z284" s="4"/>
       <c r="AA284" s="4"/>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A285" s="8"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -10243,7 +10233,7 @@
       <c r="Z285" s="4"/>
       <c r="AA285" s="4"/>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A286" s="8"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -10272,7 +10262,7 @@
       <c r="Z286" s="4"/>
       <c r="AA286" s="4"/>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A287" s="8"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -10301,7 +10291,7 @@
       <c r="Z287" s="4"/>
       <c r="AA287" s="4"/>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A288" s="8"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -10330,7 +10320,7 @@
       <c r="Z288" s="4"/>
       <c r="AA288" s="4"/>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A289" s="8"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -10359,7 +10349,7 @@
       <c r="Z289" s="4"/>
       <c r="AA289" s="4"/>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -10388,7 +10378,7 @@
       <c r="Z290" s="4"/>
       <c r="AA290" s="4"/>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A291" s="8"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -10417,7 +10407,7 @@
       <c r="Z291" s="4"/>
       <c r="AA291" s="4"/>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A292" s="8"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -10446,7 +10436,7 @@
       <c r="Z292" s="4"/>
       <c r="AA292" s="4"/>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A293" s="8"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -10475,7 +10465,7 @@
       <c r="Z293" s="4"/>
       <c r="AA293" s="4"/>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -10504,7 +10494,7 @@
       <c r="Z294" s="4"/>
       <c r="AA294" s="4"/>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A295" s="8"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -10533,7 +10523,7 @@
       <c r="Z295" s="4"/>
       <c r="AA295" s="4"/>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -10562,7 +10552,7 @@
       <c r="Z296" s="4"/>
       <c r="AA296" s="4"/>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -10591,7 +10581,7 @@
       <c r="Z297" s="4"/>
       <c r="AA297" s="4"/>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A298" s="8"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -10620,7 +10610,7 @@
       <c r="Z298" s="4"/>
       <c r="AA298" s="4"/>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -10649,7 +10639,7 @@
       <c r="Z299" s="4"/>
       <c r="AA299" s="4"/>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A300" s="8"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10678,7 +10668,7 @@
       <c r="Z300" s="4"/>
       <c r="AA300" s="4"/>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A301" s="8"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -10707,7 +10697,7 @@
       <c r="Z301" s="4"/>
       <c r="AA301" s="4"/>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -10736,7 +10726,7 @@
       <c r="Z302" s="4"/>
       <c r="AA302" s="4"/>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A303" s="8"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -10765,7 +10755,7 @@
       <c r="Z303" s="4"/>
       <c r="AA303" s="4"/>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A304" s="8"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -10794,7 +10784,7 @@
       <c r="Z304" s="4"/>
       <c r="AA304" s="4"/>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A305" s="8"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -10823,7 +10813,7 @@
       <c r="Z305" s="4"/>
       <c r="AA305" s="4"/>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -10852,7 +10842,7 @@
       <c r="Z306" s="4"/>
       <c r="AA306" s="4"/>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -10881,7 +10871,7 @@
       <c r="Z307" s="4"/>
       <c r="AA307" s="4"/>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -10910,7 +10900,7 @@
       <c r="Z308" s="4"/>
       <c r="AA308" s="4"/>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A309" s="8"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -10939,7 +10929,7 @@
       <c r="Z309" s="4"/>
       <c r="AA309" s="4"/>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A310" s="8"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -10968,7 +10958,7 @@
       <c r="Z310" s="4"/>
       <c r="AA310" s="4"/>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A311" s="8"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -10997,7 +10987,7 @@
       <c r="Z311" s="4"/>
       <c r="AA311" s="4"/>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A312" s="8"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -11026,7 +11016,7 @@
       <c r="Z312" s="4"/>
       <c r="AA312" s="4"/>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A313" s="8"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -11055,7 +11045,7 @@
       <c r="Z313" s="4"/>
       <c r="AA313" s="4"/>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A314" s="8"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -11084,7 +11074,7 @@
       <c r="Z314" s="4"/>
       <c r="AA314" s="4"/>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A315" s="8"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -11113,7 +11103,7 @@
       <c r="Z315" s="4"/>
       <c r="AA315" s="4"/>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A316" s="8"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -11142,7 +11132,7 @@
       <c r="Z316" s="4"/>
       <c r="AA316" s="4"/>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A317" s="8"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -11171,7 +11161,7 @@
       <c r="Z317" s="4"/>
       <c r="AA317" s="4"/>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A318" s="8"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -11200,7 +11190,7 @@
       <c r="Z318" s="4"/>
       <c r="AA318" s="4"/>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A319" s="8"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -11229,7 +11219,7 @@
       <c r="Z319" s="4"/>
       <c r="AA319" s="4"/>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A320" s="8"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -11258,7 +11248,7 @@
       <c r="Z320" s="4"/>
       <c r="AA320" s="4"/>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A321" s="8"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -11287,7 +11277,7 @@
       <c r="Z321" s="4"/>
       <c r="AA321" s="4"/>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A322" s="8"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>

--- a/titlePilotStudy/data/UKR.xlsx
+++ b/titlePilotStudy/data/UKR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="124">
   <si>
     <t>Identifier</t>
   </si>
@@ -816,12 +816,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM322"/>
+  <dimension ref="A1:AM320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="AM13" sqref="AM13"/>
+      <selection pane="bottomLeft" activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2151,7 +2151,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2160,104 +2160,47 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="3"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2287,18 +2230,17 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="3"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2328,7 +2270,6 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="3"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
@@ -2410,7 +2351,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2438,19 +2379,8 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2478,19 +2408,8 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2519,7 +2438,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2548,7 +2467,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2577,7 +2496,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2606,7 +2525,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2635,7 +2554,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2664,7 +2583,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2693,7 +2612,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2722,7 +2641,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2751,7 +2670,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2780,7 +2699,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2809,7 +2728,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2838,7 +2757,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2867,7 +2786,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -4579,62 +4498,62 @@
       <c r="AA90" s="2"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A91" s="8"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
-      <c r="AA91" s="2"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-      <c r="AA92" s="2"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
@@ -4810,7 +4729,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4822,7 +4741,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
+      <c r="L99" s="6"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -4868,7 +4787,7 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
     </row>
-    <row r="101" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4880,7 +4799,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="6"/>
+      <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -6928,62 +6847,62 @@
       <c r="AA171" s="3"/>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A172" s="9"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
       <c r="D172"/>
       <c r="E172"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
-      <c r="M172" s="3"/>
-      <c r="N172" s="3"/>
-      <c r="O172" s="3"/>
-      <c r="P172" s="3"/>
-      <c r="Q172" s="3"/>
-      <c r="R172" s="3"/>
-      <c r="S172" s="3"/>
-      <c r="T172" s="3"/>
-      <c r="U172" s="3"/>
-      <c r="V172" s="3"/>
-      <c r="W172" s="3"/>
-      <c r="X172" s="3"/>
-      <c r="Y172" s="3"/>
-      <c r="Z172" s="3"/>
-      <c r="AA172" s="3"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
+      <c r="Z172" s="4"/>
+      <c r="AA172" s="4"/>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A173" s="9"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
       <c r="D173"/>
       <c r="E173"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
-      <c r="L173" s="3"/>
-      <c r="M173" s="3"/>
-      <c r="N173" s="3"/>
-      <c r="O173" s="3"/>
-      <c r="P173" s="3"/>
-      <c r="Q173" s="3"/>
-      <c r="R173" s="3"/>
-      <c r="S173" s="3"/>
-      <c r="T173" s="3"/>
-      <c r="U173" s="3"/>
-      <c r="V173" s="3"/>
-      <c r="W173" s="3"/>
-      <c r="X173" s="3"/>
-      <c r="Y173" s="3"/>
-      <c r="Z173" s="3"/>
-      <c r="AA173" s="3"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
+      <c r="Z173" s="4"/>
+      <c r="AA173" s="4"/>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
@@ -7012,7 +6931,7 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
-      <c r="AA174" s="4"/>
+      <c r="AA174" s="5"/>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
@@ -7070,7 +6989,7 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
-      <c r="AA176" s="5"/>
+      <c r="AA176" s="4"/>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
@@ -7169,7 +7088,7 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
+      <c r="J180" s="2"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
@@ -7198,7 +7117,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
+      <c r="J181" s="2"/>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
@@ -7256,7 +7175,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
-      <c r="J183" s="2"/>
+      <c r="J183" s="4"/>
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
@@ -7285,7 +7204,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
-      <c r="J184" s="2"/>
+      <c r="J184" s="4"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
@@ -7914,62 +7833,62 @@
       <c r="AA205" s="4"/>
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A206" s="8"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
+      <c r="A206" s="9"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
       <c r="D206"/>
       <c r="E206"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="4"/>
-      <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="4"/>
-      <c r="P206" s="4"/>
-      <c r="Q206" s="4"/>
-      <c r="R206" s="4"/>
-      <c r="S206" s="4"/>
-      <c r="T206" s="4"/>
-      <c r="U206" s="4"/>
-      <c r="V206" s="4"/>
-      <c r="W206" s="4"/>
-      <c r="X206" s="4"/>
-      <c r="Y206" s="4"/>
-      <c r="Z206" s="4"/>
-      <c r="AA206" s="4"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="3"/>
+      <c r="X206" s="3"/>
+      <c r="Y206" s="3"/>
+      <c r="Z206" s="3"/>
+      <c r="AA206" s="3"/>
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A207" s="8"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
       <c r="D207"/>
       <c r="E207"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
-      <c r="I207" s="4"/>
-      <c r="J207" s="4"/>
-      <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="4"/>
-      <c r="P207" s="4"/>
-      <c r="Q207" s="4"/>
-      <c r="R207" s="4"/>
-      <c r="S207" s="4"/>
-      <c r="T207" s="4"/>
-      <c r="U207" s="4"/>
-      <c r="V207" s="4"/>
-      <c r="W207" s="4"/>
-      <c r="X207" s="4"/>
-      <c r="Y207" s="4"/>
-      <c r="Z207" s="4"/>
-      <c r="AA207" s="4"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="3"/>
+      <c r="X207" s="3"/>
+      <c r="Y207" s="3"/>
+      <c r="Z207" s="3"/>
+      <c r="AA207" s="3"/>
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
@@ -9915,62 +9834,62 @@
       <c r="AA274" s="3"/>
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A275" s="9"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
       <c r="D275"/>
       <c r="E275"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
-      <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
-      <c r="L275" s="3"/>
-      <c r="M275" s="3"/>
-      <c r="N275" s="3"/>
-      <c r="O275" s="3"/>
-      <c r="P275" s="3"/>
-      <c r="Q275" s="3"/>
-      <c r="R275" s="3"/>
-      <c r="S275" s="3"/>
-      <c r="T275" s="3"/>
-      <c r="U275" s="3"/>
-      <c r="V275" s="3"/>
-      <c r="W275" s="3"/>
-      <c r="X275" s="3"/>
-      <c r="Y275" s="3"/>
-      <c r="Z275" s="3"/>
-      <c r="AA275" s="3"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
+      <c r="H275" s="4"/>
+      <c r="I275" s="4"/>
+      <c r="J275" s="4"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="4"/>
+      <c r="M275" s="4"/>
+      <c r="N275" s="4"/>
+      <c r="O275" s="4"/>
+      <c r="P275" s="4"/>
+      <c r="Q275" s="4"/>
+      <c r="R275" s="4"/>
+      <c r="S275" s="4"/>
+      <c r="T275" s="4"/>
+      <c r="U275" s="4"/>
+      <c r="V275" s="4"/>
+      <c r="W275" s="4"/>
+      <c r="X275" s="4"/>
+      <c r="Y275" s="4"/>
+      <c r="Z275" s="4"/>
+      <c r="AA275" s="4"/>
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A276" s="9"/>
-      <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
       <c r="D276"/>
       <c r="E276"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
-      <c r="H276" s="3"/>
-      <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
-      <c r="K276" s="3"/>
-      <c r="L276" s="3"/>
-      <c r="M276" s="3"/>
-      <c r="N276" s="3"/>
-      <c r="O276" s="3"/>
-      <c r="P276" s="3"/>
-      <c r="Q276" s="3"/>
-      <c r="R276" s="3"/>
-      <c r="S276" s="3"/>
-      <c r="T276" s="3"/>
-      <c r="U276" s="3"/>
-      <c r="V276" s="3"/>
-      <c r="W276" s="3"/>
-      <c r="X276" s="3"/>
-      <c r="Y276" s="3"/>
-      <c r="Z276" s="3"/>
-      <c r="AA276" s="3"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="4"/>
+      <c r="H276" s="4"/>
+      <c r="I276" s="4"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="4"/>
+      <c r="M276" s="4"/>
+      <c r="N276" s="4"/>
+      <c r="O276" s="4"/>
+      <c r="P276" s="4"/>
+      <c r="Q276" s="4"/>
+      <c r="R276" s="4"/>
+      <c r="S276" s="4"/>
+      <c r="T276" s="4"/>
+      <c r="U276" s="4"/>
+      <c r="V276" s="4"/>
+      <c r="W276" s="4"/>
+      <c r="X276" s="4"/>
+      <c r="Y276" s="4"/>
+      <c r="Z276" s="4"/>
+      <c r="AA276" s="4"/>
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
@@ -9978,7 +9897,7 @@
       <c r="C277" s="4"/>
       <c r="D277"/>
       <c r="E277"/>
-      <c r="F277" s="4"/>
+      <c r="F277" s="7"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
@@ -10007,7 +9926,7 @@
       <c r="C278" s="4"/>
       <c r="D278"/>
       <c r="E278"/>
-      <c r="F278" s="7"/>
+      <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
@@ -10036,7 +9955,7 @@
       <c r="C279" s="4"/>
       <c r="D279"/>
       <c r="E279"/>
-      <c r="F279" s="7"/>
+      <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
@@ -10165,7 +10084,7 @@
       <c r="P283" s="4"/>
       <c r="Q283" s="4"/>
       <c r="R283" s="4"/>
-      <c r="S283" s="4"/>
+      <c r="S283" s="2"/>
       <c r="T283" s="4"/>
       <c r="U283" s="4"/>
       <c r="V283" s="4"/>
@@ -10223,7 +10142,7 @@
       <c r="P285" s="4"/>
       <c r="Q285" s="4"/>
       <c r="R285" s="4"/>
-      <c r="S285" s="2"/>
+      <c r="S285" s="4"/>
       <c r="T285" s="4"/>
       <c r="U285" s="4"/>
       <c r="V285" s="4"/>
@@ -10252,9 +10171,9 @@
       <c r="P286" s="4"/>
       <c r="Q286" s="4"/>
       <c r="R286" s="4"/>
-      <c r="S286" s="4"/>
+      <c r="S286" s="2"/>
       <c r="T286" s="4"/>
-      <c r="U286" s="4"/>
+      <c r="U286" s="7"/>
       <c r="V286" s="4"/>
       <c r="W286" s="4"/>
       <c r="X286" s="4"/>
@@ -10310,9 +10229,9 @@
       <c r="P288" s="4"/>
       <c r="Q288" s="4"/>
       <c r="R288" s="4"/>
-      <c r="S288" s="2"/>
+      <c r="S288" s="4"/>
       <c r="T288" s="4"/>
-      <c r="U288" s="7"/>
+      <c r="U288" s="4"/>
       <c r="V288" s="4"/>
       <c r="W288" s="4"/>
       <c r="X288" s="4"/>
@@ -10395,8 +10314,8 @@
       <c r="N291" s="4"/>
       <c r="O291" s="4"/>
       <c r="P291" s="4"/>
-      <c r="Q291" s="4"/>
-      <c r="R291" s="4"/>
+      <c r="Q291" s="2"/>
+      <c r="R291" s="2"/>
       <c r="S291" s="4"/>
       <c r="T291" s="4"/>
       <c r="U291" s="4"/>
@@ -10453,8 +10372,8 @@
       <c r="N293" s="4"/>
       <c r="O293" s="4"/>
       <c r="P293" s="4"/>
-      <c r="Q293" s="2"/>
-      <c r="R293" s="2"/>
+      <c r="Q293" s="4"/>
+      <c r="R293" s="4"/>
       <c r="S293" s="4"/>
       <c r="T293" s="4"/>
       <c r="U293" s="4"/>
@@ -10482,8 +10401,8 @@
       <c r="N294" s="4"/>
       <c r="O294" s="4"/>
       <c r="P294" s="4"/>
-      <c r="Q294" s="4"/>
-      <c r="R294" s="4"/>
+      <c r="Q294" s="2"/>
+      <c r="R294" s="2"/>
       <c r="S294" s="4"/>
       <c r="T294" s="4"/>
       <c r="U294" s="4"/>
@@ -10540,8 +10459,8 @@
       <c r="N296" s="4"/>
       <c r="O296" s="4"/>
       <c r="P296" s="4"/>
-      <c r="Q296" s="2"/>
-      <c r="R296" s="2"/>
+      <c r="Q296" s="4"/>
+      <c r="R296" s="4"/>
       <c r="S296" s="4"/>
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
@@ -10597,7 +10516,7 @@
       <c r="M298" s="4"/>
       <c r="N298" s="4"/>
       <c r="O298" s="4"/>
-      <c r="P298" s="4"/>
+      <c r="P298" s="2"/>
       <c r="Q298" s="4"/>
       <c r="R298" s="4"/>
       <c r="S298" s="4"/>
@@ -10655,7 +10574,7 @@
       <c r="M300" s="4"/>
       <c r="N300" s="4"/>
       <c r="O300" s="4"/>
-      <c r="P300" s="2"/>
+      <c r="P300" s="4"/>
       <c r="Q300" s="4"/>
       <c r="R300" s="4"/>
       <c r="S300" s="4"/>
@@ -10716,7 +10635,7 @@
       <c r="P302" s="4"/>
       <c r="Q302" s="4"/>
       <c r="R302" s="4"/>
-      <c r="S302" s="4"/>
+      <c r="S302" s="2"/>
       <c r="T302" s="4"/>
       <c r="U302" s="4"/>
       <c r="V302" s="4"/>
@@ -10743,8 +10662,8 @@
       <c r="N303" s="4"/>
       <c r="O303" s="4"/>
       <c r="P303" s="4"/>
-      <c r="Q303" s="4"/>
-      <c r="R303" s="4"/>
+      <c r="Q303" s="2"/>
+      <c r="R303" s="2"/>
       <c r="S303" s="4"/>
       <c r="T303" s="4"/>
       <c r="U303" s="4"/>
@@ -10761,7 +10680,7 @@
       <c r="C304" s="4"/>
       <c r="D304"/>
       <c r="E304"/>
-      <c r="F304" s="4"/>
+      <c r="F304" s="7"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
@@ -10801,8 +10720,8 @@
       <c r="N305" s="4"/>
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
-      <c r="Q305" s="2"/>
-      <c r="R305" s="2"/>
+      <c r="Q305" s="4"/>
+      <c r="R305" s="4"/>
       <c r="S305" s="4"/>
       <c r="T305" s="4"/>
       <c r="U305" s="4"/>
@@ -10819,7 +10738,7 @@
       <c r="C306" s="4"/>
       <c r="D306"/>
       <c r="E306"/>
-      <c r="F306" s="7"/>
+      <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
@@ -10832,7 +10751,7 @@
       <c r="P306" s="4"/>
       <c r="Q306" s="4"/>
       <c r="R306" s="4"/>
-      <c r="S306" s="2"/>
+      <c r="S306" s="4"/>
       <c r="T306" s="4"/>
       <c r="U306" s="4"/>
       <c r="V306" s="4"/>
@@ -11055,7 +10974,7 @@
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
-      <c r="J314" s="4"/>
+      <c r="J314" s="2"/>
       <c r="K314" s="4"/>
       <c r="L314" s="4"/>
       <c r="M314" s="4"/>
@@ -11084,7 +11003,7 @@
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
-      <c r="J315" s="4"/>
+      <c r="J315" s="2"/>
       <c r="K315" s="4"/>
       <c r="L315" s="4"/>
       <c r="M315" s="4"/>
@@ -11142,7 +11061,7 @@
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
-      <c r="J317" s="2"/>
+      <c r="J317" s="4"/>
       <c r="K317" s="4"/>
       <c r="L317" s="4"/>
       <c r="M317" s="4"/>
@@ -11171,7 +11090,7 @@
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
-      <c r="J318" s="2"/>
+      <c r="J318" s="4"/>
       <c r="K318" s="4"/>
       <c r="L318" s="4"/>
       <c r="M318" s="4"/>
@@ -11248,86 +11167,28 @@
       <c r="Z320" s="4"/>
       <c r="AA320" s="4"/>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A321" s="8"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="D321"/>
-      <c r="E321"/>
-      <c r="F321" s="4"/>
-      <c r="G321" s="4"/>
-      <c r="H321" s="4"/>
-      <c r="I321" s="4"/>
-      <c r="J321" s="4"/>
-      <c r="K321" s="4"/>
-      <c r="L321" s="4"/>
-      <c r="M321" s="4"/>
-      <c r="N321" s="4"/>
-      <c r="O321" s="4"/>
-      <c r="P321" s="4"/>
-      <c r="Q321" s="4"/>
-      <c r="R321" s="4"/>
-      <c r="S321" s="4"/>
-      <c r="T321" s="4"/>
-      <c r="U321" s="4"/>
-      <c r="V321" s="4"/>
-      <c r="W321" s="4"/>
-      <c r="X321" s="4"/>
-      <c r="Y321" s="4"/>
-      <c r="Z321" s="4"/>
-      <c r="AA321" s="4"/>
-    </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A322" s="8"/>
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
-      <c r="D322"/>
-      <c r="E322"/>
-      <c r="F322" s="4"/>
-      <c r="G322" s="4"/>
-      <c r="H322" s="4"/>
-      <c r="I322" s="4"/>
-      <c r="J322" s="4"/>
-      <c r="K322" s="4"/>
-      <c r="L322" s="4"/>
-      <c r="M322" s="4"/>
-      <c r="N322" s="4"/>
-      <c r="O322" s="4"/>
-      <c r="P322" s="4"/>
-      <c r="Q322" s="4"/>
-      <c r="R322" s="4"/>
-      <c r="S322" s="4"/>
-      <c r="T322" s="4"/>
-      <c r="U322" s="4"/>
-      <c r="V322" s="4"/>
-      <c r="W322" s="4"/>
-      <c r="X322" s="4"/>
-      <c r="Y322" s="4"/>
-      <c r="Z322" s="4"/>
-      <c r="AA322" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R3 R5:R10 R12:R1048576 M1:M1048576 V1:V1048576">
+      <formula1>"def,indef,no,na"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J275:J320 AA2:AA4 U6 Q1 U2:U3 W1:W6 X1:X320 W11:W320 U11:U16 Q3:Q320 N1:N320 L1:L320 J1:J239 Z1:Z320 AA10:AA16">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576">
       <formula1>"interpunc,word,mixed,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
       <formula1>"m,f,d,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 M1:M1048576 R1:R3 R5:R10 R12:R1048576">
-      <formula1>"def,indef,no,na"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK1048576 AC1:AC1048576 AG1:AG1048576 AI1:AI1048576 AE1:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576 AI1:AI1048576 AG1:AG1048576 AC1:AC1048576 AK1:AK1048576">
       <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ1048576 AH1:AH1048576 AF1:AF1048576 AB1:AB1048576 AD1:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576 AB1:AB1048576 AF1:AF1048576 AH1:AH1048576 AJ1:AJ1048576">
       <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
       <formula1>"one,more,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J277:J322 AA10:AA18 AA2:AA4 Z1:Z322 U6 J1:J241 L1:L322 N1:N322 Q3:Q322 U11:U18 Q1 U2:U3 W11:W322 W1:W6 X1:X322">
-      <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/titlePilotStudy/data/UKR.xlsx
+++ b/titlePilotStudy/data/UKR.xlsx
@@ -306,9 +306,6 @@
     <t>verby</t>
   </si>
   <si>
-    <t>Title - rough translation</t>
-  </si>
-  <si>
     <t>Pure Oksana</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>Two Moscow Women (soldiers' wives)</t>
+  </si>
+  <si>
+    <t>translation</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
     <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="AR20" sqref="AR20"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +957,7 @@
         <v>38</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
         <v>25</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>87</v>
@@ -1073,10 +1073,10 @@
         <v>25</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
@@ -1126,7 +1126,7 @@
         <v>54</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>25</v>
@@ -1192,10 +1192,10 @@
         <v>25</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
@@ -1242,16 +1242,16 @@
         <v>45</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="Q4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>58</v>
@@ -1260,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>25</v>
@@ -1311,10 +1311,10 @@
         <v>25</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
@@ -1379,7 +1379,7 @@
         <v>25</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>25</v>
@@ -1391,13 +1391,13 @@
         <v>45</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>25</v>
@@ -1430,10 +1430,10 @@
         <v>25</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
@@ -1480,10 +1480,10 @@
         <v>45</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>25</v>
@@ -1510,13 +1510,13 @@
         <v>45</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>25</v>
@@ -1549,10 +1549,10 @@
         <v>25</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
@@ -1617,7 +1617,7 @@
         <v>68</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>46</v>
@@ -1629,13 +1629,13 @@
         <v>45</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>25</v>
@@ -1671,7 +1671,7 @@
         <v>88</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
@@ -1748,13 +1748,13 @@
         <v>45</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>25</v>
@@ -1790,7 +1790,7 @@
         <v>89</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
@@ -1867,13 +1867,13 @@
         <v>45</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB9" s="2" t="s">
         <v>25</v>
@@ -1909,7 +1909,7 @@
         <v>90</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
@@ -2028,7 +2028,7 @@
         <v>92</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
@@ -2075,16 +2075,16 @@
         <v>45</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>47</v>
@@ -2144,10 +2144,10 @@
         <v>25</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
